--- a/complexity.xlsx
+++ b/complexity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="460" windowWidth="20480" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
